--- a/STATS/Sunrisers Hyderabad/Bhuvneshwar Kumar.xlsx
+++ b/STATS/Sunrisers Hyderabad/Bhuvneshwar Kumar.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,9 +438,38 @@
         <v>Royal Challengers Bangalore</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Bhuvneshwar Kumar</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+      <c r="C3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>